--- a/sorensenLab/relatedToDlg2/design20210210_dlg2OrfDesign/DLG2long/oligoDesignsDlg2Long.xlsx
+++ b/sorensenLab/relatedToDlg2/design20210210_dlg2OrfDesign/DLG2long/oligoDesignsDlg2Long.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
   <si>
     <t>Name</t>
   </si>
@@ -260,6 +260,18 @@
   </si>
   <si>
     <t>TTTTGGCAGAGGGAAAAAGA</t>
+  </si>
+  <si>
+    <t>CCACATTGGAGATGACCCTG</t>
+  </si>
+  <si>
+    <t>ATGACTGATCCTTATGGTCCAC</t>
+  </si>
+  <si>
+    <t>TCCTATCGGTGAATGGCATTGAC</t>
+  </si>
+  <si>
+    <t>CCTGTTACAAGGCAGGAAATAAAC</t>
   </si>
 </sst>
 </file>
@@ -604,7 +616,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A2" sqref="A2:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -770,20 +782,32 @@
       <c r="A19" t="s">
         <v>19</v>
       </c>
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
+      <c r="B20" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
+      <c r="B21" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>31</v>
+      </c>
+      <c r="B22" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">

--- a/sorensenLab/relatedToDlg2/design20210210_dlg2OrfDesign/DLG2long/oligoDesignsDlg2Long.xlsx
+++ b/sorensenLab/relatedToDlg2/design20210210_dlg2OrfDesign/DLG2long/oligoDesignsDlg2Long.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$21</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$25</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -615,8 +615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B25"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/sorensenLab/relatedToDlg2/design20210210_dlg2OrfDesign/DLG2long/oligoDesignsDlg2Long.xlsx
+++ b/sorensenLab/relatedToDlg2/design20210210_dlg2OrfDesign/DLG2long/oligoDesignsDlg2Long.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26475" windowHeight="10980"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26475" windowHeight="10980" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="remakePrimers" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$25</definedName>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="47">
   <si>
     <t>Name</t>
   </si>
@@ -272,6 +273,67 @@
   </si>
   <si>
     <t>CCTGTTACAAGGCAGGAAATAAAC</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>primerTm</t>
+  </si>
+  <si>
+    <t>gibsonTm</t>
+  </si>
+  <si>
+    <t>dlg2PlvxRev2</t>
+  </si>
+  <si>
+    <t>dlg2PlvxFwd2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CAGATCTCGAG</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GCCACCATGTTCTTTGCATGT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GAATTATCTAGATTA</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TAACTTTTCCTTTGAGGGAATCCA</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -323,7 +385,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -333,6 +395,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -615,8 +678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -830,4 +893,203 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="42" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="3">
+        <v>60</v>
+      </c>
+      <c r="F2" s="3">
+        <v>109</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="3">
+        <v>59</v>
+      </c>
+      <c r="F5" s="3">
+        <v>2606</v>
+      </c>
+      <c r="G5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="3">
+        <v>60</v>
+      </c>
+      <c r="F8" s="3">
+        <v>119</v>
+      </c>
+      <c r="G8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="3">
+        <v>64</v>
+      </c>
+      <c r="F11" s="3">
+        <v>2600</v>
+      </c>
+      <c r="G11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="5">
+        <f>LEN(B14)</f>
+        <v>32</v>
+      </c>
+      <c r="D14" s="5">
+        <v>56</v>
+      </c>
+      <c r="E14" s="3">
+        <v>56</v>
+      </c>
+      <c r="F14" s="3">
+        <v>2562</v>
+      </c>
+      <c r="G14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="5">
+        <f>LEN(B15)</f>
+        <v>39</v>
+      </c>
+      <c r="D15" s="5">
+        <v>54</v>
+      </c>
+      <c r="E15" s="3">
+        <v>54</v>
+      </c>
+      <c r="F15" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/sorensenLab/relatedToDlg2/design20210210_dlg2OrfDesign/DLG2long/oligoDesignsDlg2Long.xlsx
+++ b/sorensenLab/relatedToDlg2/design20210210_dlg2OrfDesign/DLG2long/oligoDesignsDlg2Long.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26475" windowHeight="10980" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26475" windowHeight="10980" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="48">
   <si>
     <t>Name</t>
   </si>
@@ -334,6 +334,9 @@
       </rPr>
       <t>TAACTTTTCCTTTGAGGGAATCCA</t>
     </r>
+  </si>
+  <si>
+    <t>these are the XhoI and XbaI primers that eventually worked.</t>
   </si>
 </sst>
 </file>
@@ -897,10 +900,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1087,6 +1090,15 @@
         <v>54</v>
       </c>
       <c r="F15" s="3"/>
+      <c r="G15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C16" s="5"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sorensenLab/relatedToDlg2/design20210210_dlg2OrfDesign/DLG2long/oligoDesignsDlg2Long.xlsx
+++ b/sorensenLab/relatedToDlg2/design20210210_dlg2OrfDesign/DLG2long/oligoDesignsDlg2Long.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="88">
   <si>
     <t>Name</t>
   </si>
@@ -337,6 +337,126 @@
   </si>
   <si>
     <t>these are the XhoI and XbaI primers that eventually worked.</t>
+  </si>
+  <si>
+    <t>dlg2lPlvxNflagFwd</t>
+  </si>
+  <si>
+    <t>dlg2lPlvxNflagRev</t>
+  </si>
+  <si>
+    <t>AGAATTATCTAGATTATAACTTTTCCTTTGAGGGAATCCA</t>
+  </si>
+  <si>
+    <t>this is for nFlag insertion with XhoI and XbaI sites</t>
+  </si>
+  <si>
+    <t>cagatctcgagATGTTCTTTGCATGTTACTGTGCACT</t>
+  </si>
+  <si>
+    <t>dlg2lPlvxCflagFwd</t>
+  </si>
+  <si>
+    <t>dlg2lPlvxCflagRev</t>
+  </si>
+  <si>
+    <t>this is for cFlag insertion with XhoI and XbaI sites</t>
+  </si>
+  <si>
+    <t>ACTCAGATCTCGAGCCACCATG</t>
+  </si>
+  <si>
+    <t>gaattatctagaTAACTTTTCCTTTGAGGGAATCCAGATGAAA</t>
+  </si>
+  <si>
+    <t>CAGCGGGGCTGCTAAAGCGCATGC</t>
+  </si>
+  <si>
+    <t>MSCV-rev</t>
+  </si>
+  <si>
+    <t>CMV-F</t>
+  </si>
+  <si>
+    <t>WPRE-R</t>
+  </si>
+  <si>
+    <t>CATAGCGTAAAAGGAGCAACA</t>
+  </si>
+  <si>
+    <t>yb1NdtagSang1</t>
+  </si>
+  <si>
+    <t>yb1NdtagSang2</t>
+  </si>
+  <si>
+    <t>yb1CdtagSang1</t>
+  </si>
+  <si>
+    <t>yb1CdtagSang2</t>
+  </si>
+  <si>
+    <t>dlg2NdtagSang1</t>
+  </si>
+  <si>
+    <t>dlg2CdtagSang1</t>
+  </si>
+  <si>
+    <t>dlg2NdtagSang2</t>
+  </si>
+  <si>
+    <t>dlg2CdtagSang2</t>
+  </si>
+  <si>
+    <t>ef1NdtagSang1</t>
+  </si>
+  <si>
+    <t>ef1NdtagSang2</t>
+  </si>
+  <si>
+    <t>ef1NdtagSang3</t>
+  </si>
+  <si>
+    <t>ATCATCCCACCACATGCCAC</t>
+  </si>
+  <si>
+    <t>this is good for plvx Rev</t>
+  </si>
+  <si>
+    <t>this is good for plvx Fwd</t>
+  </si>
+  <si>
+    <t>this will grab after the antibiotic marker</t>
+  </si>
+  <si>
+    <t>mPGK-F</t>
+  </si>
+  <si>
+    <t>CATTCTGCACGCTTCAAAAG</t>
+  </si>
+  <si>
+    <t>this will grab just before the antibiotic marker</t>
+  </si>
+  <si>
+    <t>AAAGGAGGGTGGAAAGAAAGG</t>
+  </si>
+  <si>
+    <t>AAAGGAGGGTGGAAAGAAAGGAAC</t>
+  </si>
+  <si>
+    <t>TCCAGAGAACAAATGGAGAAAG</t>
+  </si>
+  <si>
+    <t>GATGTATTTGTACACCAGACTGCC</t>
+  </si>
+  <si>
+    <t>TGCAGGGAGAAGTGATGGAG</t>
+  </si>
+  <si>
+    <t>ACTGGTGCTTATGATACCACCAC</t>
+  </si>
+  <si>
+    <t>AACCGAGCAGCTATGGACAG</t>
   </si>
 </sst>
 </file>
@@ -900,10 +1020,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -941,164 +1061,307 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>44</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="5">
+        <f>LEN(B2)</f>
+        <v>32</v>
+      </c>
+      <c r="D2" s="5">
+        <v>56</v>
       </c>
       <c r="E2" s="3">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F2" s="3">
-        <v>109</v>
+        <v>2562</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="3"/>
+        <v>43</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="5">
+        <f>LEN(B3)</f>
+        <v>39</v>
+      </c>
+      <c r="D3" s="5">
+        <v>54</v>
+      </c>
+      <c r="E3" s="3">
+        <v>54</v>
+      </c>
       <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="G3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="3">
-        <v>59</v>
-      </c>
-      <c r="F5" s="3">
-        <v>2606</v>
+        <v>48</v>
+      </c>
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="5">
+        <f>LEN(B5)</f>
+        <v>37</v>
+      </c>
+      <c r="E5">
+        <v>68</v>
+      </c>
+      <c r="F5">
+        <v>2600</v>
       </c>
       <c r="G5" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+        <v>49</v>
+      </c>
+      <c r="B6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="5">
+        <f>LEN(B6)</f>
+        <v>40</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="5">
+        <f>LEN(B7)</f>
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>68</v>
+      </c>
+      <c r="F7">
+        <v>2600</v>
+      </c>
+      <c r="G7" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="3">
-        <v>60</v>
-      </c>
-      <c r="F8" s="3">
-        <v>119</v>
-      </c>
-      <c r="G8" t="s">
-        <v>18</v>
+        <v>54</v>
+      </c>
+      <c r="B8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="5">
+        <f>LEN(B8)</f>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+        <v>59</v>
+      </c>
+      <c r="B9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="5">
+        <f t="shared" ref="C9:C23" si="0">LEN(B9)</f>
+        <v>24</v>
+      </c>
+      <c r="G9" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="5">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="G10" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="3">
-        <v>64</v>
-      </c>
-      <c r="F11" s="3">
-        <v>2600</v>
+        <v>78</v>
+      </c>
+      <c r="B11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="5">
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+        <v>61</v>
+      </c>
+      <c r="B12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="5">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="G12" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+      <c r="A13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="5">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>45</v>
+        <v>64</v>
+      </c>
+      <c r="B14" t="s">
+        <v>84</v>
       </c>
       <c r="C14" s="5">
-        <f>LEN(B14)</f>
-        <v>32</v>
-      </c>
-      <c r="D14" s="5">
-        <v>56</v>
-      </c>
-      <c r="E14" s="3">
-        <v>56</v>
-      </c>
-      <c r="F14" s="3">
-        <v>2562</v>
-      </c>
-      <c r="G14" t="s">
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>46</v>
+        <v>65</v>
+      </c>
+      <c r="B15" t="s">
+        <v>84</v>
       </c>
       <c r="C15" s="5">
-        <f>LEN(B15)</f>
-        <v>39</v>
-      </c>
-      <c r="D15" s="5">
-        <v>54</v>
-      </c>
-      <c r="E15" s="3">
-        <v>54</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" t="s">
-        <v>47</v>
+        <f t="shared" si="0"/>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C16" s="5"/>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17" s="5"/>
+      <c r="A16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="5">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="5">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="5">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="5">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="5">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="5">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="5">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" s="5">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
